--- a/UnitCharacteristics.xlsx
+++ b/UnitCharacteristics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Unit</t>
   </si>
@@ -37,16 +37,74 @@
   </si>
   <si>
     <t>Armor</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Wheeled</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>Proj. Speed</t>
+  </si>
+  <si>
+    <t>Penetration</t>
+  </si>
+  <si>
+    <t>DPM</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>Turn Speed</t>
+  </si>
+  <si>
+    <t>Turret Turn Speed</t>
+  </si>
+  <si>
+    <t>Fire Range</t>
+  </si>
+  <si>
+    <t>Up Angle</t>
+  </si>
+  <si>
+    <t>Down Angle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -83,13 +141,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,40 +483,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>750</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="I2" s="2">
+        <f>G2/H2</f>
+        <v>23.52941176470588</v>
+      </c>
+      <c r="J2" s="2">
+        <f>G2/H2*60</f>
+        <v>1411.7647058823529</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-45</v>
+      </c>
+      <c r="N2" s="4">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>180</v>
+      </c>
+      <c r="R2" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="11">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>1700</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>120</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3/H3</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="J3" s="2">
+        <f>G3/H3*60</f>
+        <v>2057.1428571428569</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="12">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-25</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>5.7</v>
+      </c>
+      <c r="P3">
+        <v>1.6</v>
+      </c>
+      <c r="Q3">
+        <v>140</v>
+      </c>
+      <c r="R3">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UnitCharacteristics.xlsx
+++ b/UnitCharacteristics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Unit</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Lynx</t>
   </si>
   <si>
-    <t>Wheeled</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>–</t>
-  </si>
-  <si>
     <t>Damage</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>Down Angle</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Self-kill time (sec)</t>
   </si>
 </sst>
 </file>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -203,6 +209,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,10 +513,11 @@
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -516,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -525,51 +534,54 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10">
         <v>50</v>
@@ -577,8 +589,8 @@
       <c r="D2" s="2">
         <v>750</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
+      <c r="E2" s="4">
+        <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>6</v>
@@ -587,18 +599,18 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I2" s="2">
         <f>G2/H2</f>
-        <v>23.52941176470588</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2">
         <f>G2/H2*60</f>
-        <v>1411.7647058823529</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>1500</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
       </c>
       <c r="L2" s="2">
         <v>10</v>
@@ -618,11 +630,15 @@
       <c r="Q2" s="2">
         <v>180</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="4">
         <v>190</v>
       </c>
+      <c r="S2" s="2">
+        <f>D2/((1 + (K2-E2)*0.05)*I2)</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -635,28 +651,28 @@
       <c r="D3">
         <v>1700</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
+      <c r="E3" s="4">
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>5.65</v>
       </c>
       <c r="I3" s="2">
         <f>G3/H3</f>
-        <v>34.285714285714285</v>
+        <v>70.796460176991147</v>
       </c>
       <c r="J3" s="2">
         <f>G3/H3*60</f>
-        <v>2057.1428571428569</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>4247.787610619469</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
       </c>
       <c r="L3" s="12">
         <v>14</v>
@@ -671,13 +687,17 @@
         <v>5.7</v>
       </c>
       <c r="P3">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>140</v>
-      </c>
-      <c r="R3">
+        <v>250</v>
+      </c>
+      <c r="R3" s="5">
         <v>95</v>
+      </c>
+      <c r="S3" s="2">
+        <f>D3/((1 + (K3-E3)*0.05)*I3)</f>
+        <v>30.015625</v>
       </c>
     </row>
   </sheetData>

--- a/UnitCharacteristics.xlsx
+++ b/UnitCharacteristics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Unit</t>
   </si>
@@ -88,13 +88,46 @@
   </si>
   <si>
     <t>Self-kill time (sec)</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Cruiser</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Ref. DPM (5 armor)</t>
+  </si>
+  <si>
+    <t>Ref. DPM (10 armor)</t>
+  </si>
+  <si>
+    <t>Ref. DPM (15 armor)</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Hornet</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
+    <t>Armor const:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +138,12 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -206,11 +245,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,214 +537,1183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="9.140625" style="11"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T2" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="U2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D3" s="14">
         <v>50</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E3" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15">
+        <v>8</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="J3" s="15">
+        <f>H3/I3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K3" s="15">
+        <f>H3/I3*60</f>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>12</v>
+      </c>
+      <c r="N3" s="15">
+        <v>-45</v>
+      </c>
+      <c r="O3" s="16">
+        <v>25</v>
+      </c>
+      <c r="P3" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>7</v>
+      </c>
+      <c r="R3" s="15">
+        <v>180</v>
+      </c>
+      <c r="S3" s="16">
+        <v>720</v>
+      </c>
+      <c r="T3" s="15">
+        <f>E3/((1 + (L3-F3)*0.05)*J3)</f>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="U3" s="15">
+        <f>(1 + (L3-5)*$D$1)*K3</f>
+        <v>1600.0000000000002</v>
+      </c>
+      <c r="V3" s="15">
+        <f>(1 + (L3-10)*$D$1)*K3</f>
+        <v>1100.0000000000002</v>
+      </c>
+      <c r="W3" s="15">
+        <f>(1 + (L3-15)*$D$1)*K3</f>
+        <v>599.99999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>200</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1900</v>
+      </c>
+      <c r="F4" s="16">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15">
+        <v>12</v>
+      </c>
+      <c r="H4" s="18">
+        <v>400</v>
+      </c>
+      <c r="I4" s="18">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J4" s="15">
+        <f>H4/I4</f>
+        <v>78.431372549019613</v>
+      </c>
+      <c r="K4" s="15">
+        <f>H4/I4*60</f>
+        <v>4705.8823529411766</v>
+      </c>
+      <c r="L4" s="15">
+        <v>4</v>
+      </c>
+      <c r="M4" s="19">
+        <v>17</v>
+      </c>
+      <c r="N4" s="15">
+        <v>-25</v>
+      </c>
+      <c r="O4" s="16">
+        <v>10</v>
+      </c>
+      <c r="P4" s="18">
+        <v>5.7</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>3</v>
+      </c>
+      <c r="R4" s="18">
+        <v>250</v>
+      </c>
+      <c r="S4" s="20">
+        <v>95</v>
+      </c>
+      <c r="T4" s="15">
+        <f>E4/((1 + (L4-F4)*0.05)*J4)</f>
+        <v>30.281249999999996</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" ref="U4:U7" si="0">(1 + (L4-5)*$D$1)*K4</f>
+        <v>4470.5882352941171</v>
+      </c>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4:V7" si="1">(1 + (L4-10)*$D$1)*K4</f>
+        <v>3294.1176470588234</v>
+      </c>
+      <c r="W4" s="15">
+        <f t="shared" ref="W4:W7" si="2">(1 + (L4-15)*$D$1)*K4</f>
+        <v>2117.6470588235293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="17">
+        <v>100</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1400</v>
+      </c>
+      <c r="F5" s="20">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15">
+        <v>9</v>
+      </c>
+      <c r="H5" s="15">
+        <v>85</v>
+      </c>
+      <c r="I5" s="18">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15">
+        <f>H5/I5</f>
+        <v>42.5</v>
+      </c>
+      <c r="K5" s="15">
+        <f>H5/I5*60</f>
+        <v>2550</v>
+      </c>
+      <c r="L5" s="15">
+        <v>5</v>
+      </c>
+      <c r="M5" s="15">
+        <v>19</v>
+      </c>
+      <c r="N5" s="15">
+        <v>-16</v>
+      </c>
+      <c r="O5" s="20">
+        <v>10</v>
+      </c>
+      <c r="P5" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>6</v>
+      </c>
+      <c r="R5" s="15">
+        <v>320</v>
+      </c>
+      <c r="S5" s="20">
+        <v>140</v>
+      </c>
+      <c r="T5" s="15">
+        <f>E5/((1 + (L5-F5)*0.05)*J5)</f>
+        <v>29.946524064171118</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" si="0"/>
+        <v>2550</v>
+      </c>
+      <c r="V5" s="15">
+        <f t="shared" si="1"/>
+        <v>1912.5</v>
+      </c>
+      <c r="W5" s="15">
+        <f t="shared" si="2"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="17">
+        <v>400</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="20">
+        <v>16</v>
+      </c>
+      <c r="G6" s="15">
+        <v>18</v>
+      </c>
+      <c r="H6" s="15">
         <v>750</v>
       </c>
-      <c r="E2" s="4">
+      <c r="I6" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="J6" s="15">
+        <f>H6/I6</f>
+        <v>100</v>
+      </c>
+      <c r="K6" s="15">
+        <f>H6/I6*60</f>
+        <v>6000</v>
+      </c>
+      <c r="L6" s="15">
+        <v>16</v>
+      </c>
+      <c r="M6" s="15">
+        <v>42</v>
+      </c>
+      <c r="N6" s="15">
+        <v>-34</v>
+      </c>
+      <c r="O6" s="20">
+        <v>7</v>
+      </c>
+      <c r="P6" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>200</v>
+      </c>
+      <c r="S6" s="20">
+        <v>70</v>
+      </c>
+      <c r="T6" s="15">
+        <f>E6/((1 + (L6-F6)*0.05)*J6)</f>
+        <v>30</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="0"/>
+        <v>9300</v>
+      </c>
+      <c r="V6" s="15">
+        <f t="shared" si="1"/>
+        <v>7800</v>
+      </c>
+      <c r="W6" s="15">
+        <f t="shared" si="2"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="17">
+        <v>500</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1100</v>
+      </c>
+      <c r="F7" s="20">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="I2" s="2">
-        <f>G2/H2</f>
-        <v>25</v>
-      </c>
-      <c r="J2" s="2">
-        <f>G2/H2*60</f>
-        <v>1500</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="G7" s="19">
+        <v>80</v>
+      </c>
+      <c r="H7" s="18">
+        <v>750</v>
+      </c>
+      <c r="I7" s="18">
+        <v>14.8</v>
+      </c>
+      <c r="J7" s="15">
+        <f>H7/I7</f>
+        <v>50.67567567567567</v>
+      </c>
+      <c r="K7" s="15">
+        <f>H7/I7*60</f>
+        <v>3040.5405405405404</v>
+      </c>
+      <c r="L7" s="18">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
-        <v>-45</v>
-      </c>
-      <c r="N2" s="4">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="M7" s="19">
         <v>10</v>
       </c>
-      <c r="P2" s="2">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>180</v>
-      </c>
-      <c r="R2" s="4">
-        <v>190</v>
-      </c>
-      <c r="S2" s="2">
-        <f>D2/((1 + (K2-E2)*0.05)*I2)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>1700</v>
-      </c>
-      <c r="E3" s="4">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>400</v>
-      </c>
-      <c r="H3">
-        <v>5.65</v>
-      </c>
-      <c r="I3" s="2">
-        <f>G3/H3</f>
-        <v>70.796460176991147</v>
-      </c>
-      <c r="J3" s="2">
-        <f>G3/H3*60</f>
-        <v>4247.787610619469</v>
-      </c>
-      <c r="K3" s="2">
-        <v>4</v>
-      </c>
-      <c r="L3" s="12">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2">
-        <v>-25</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="N7" s="19">
+        <v>-8</v>
+      </c>
+      <c r="O7" s="20">
         <v>10</v>
       </c>
-      <c r="O3">
-        <v>5.7</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>250</v>
-      </c>
-      <c r="R3" s="5">
-        <v>95</v>
-      </c>
-      <c r="S3" s="2">
-        <f>D3/((1 + (K3-E3)*0.05)*I3)</f>
-        <v>30.015625</v>
-      </c>
+      <c r="P7" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="R7" s="18">
+        <v>170</v>
+      </c>
+      <c r="S7" s="20">
+        <v>140</v>
+      </c>
+      <c r="T7" s="15">
+        <f>E7/((1 + (L7-F7)*0.05)*J7)</f>
+        <v>14.970114942528737</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="0"/>
+        <v>3800.6756756756754</v>
+      </c>
+      <c r="V7" s="15">
+        <f t="shared" si="1"/>
+        <v>3040.5405405405404</v>
+      </c>
+      <c r="W7" s="15">
+        <f t="shared" si="2"/>
+        <v>2280.4054054054054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+    </row>
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+    </row>
+    <row r="23" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+    </row>
+    <row r="26" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+    </row>
+    <row r="28" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+    </row>
+    <row r="29" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+    </row>
+    <row r="30" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+    </row>
+    <row r="31" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+    </row>
+    <row r="32" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+    </row>
+    <row r="33" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+    </row>
+    <row r="34" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+    </row>
+    <row r="35" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+    </row>
+    <row r="36" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+    </row>
+    <row r="37" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+    </row>
+    <row r="38" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UnitCharacteristics.xlsx
+++ b/UnitCharacteristics.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="21">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="Q3" s="15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R3" s="15">
         <v>180</v>
@@ -714,15 +714,15 @@
       </c>
       <c r="U3" s="15">
         <f>(1 + (L3-5)*$D$1)*K3</f>
-        <v>1600.0000000000002</v>
+        <v>1520.0000000000002</v>
       </c>
       <c r="V3" s="15">
         <f>(1 + (L3-10)*$D$1)*K3</f>
-        <v>1100.0000000000002</v>
+        <v>920</v>
       </c>
       <c r="W3" s="15">
         <f>(1 + (L3-15)*$D$1)*K3</f>
-        <v>599.99999999999989</v>
+        <v>320.00000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N4" s="15">
         <v>-25</v>
@@ -777,13 +777,13 @@
         <v>5.7</v>
       </c>
       <c r="Q4" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R4" s="18">
         <v>250</v>
       </c>
       <c r="S4" s="20">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="T4" s="15">
         <f>E4/((1 + (L4-F4)*0.05)*J4)</f>
@@ -791,15 +791,15 @@
       </c>
       <c r="U4" s="15">
         <f t="shared" ref="U4:U7" si="0">(1 + (L4-5)*$D$1)*K4</f>
-        <v>4470.5882352941171</v>
+        <v>4423.5294117647054</v>
       </c>
       <c r="V4" s="15">
         <f t="shared" ref="V4:V7" si="1">(1 + (L4-10)*$D$1)*K4</f>
-        <v>3294.1176470588234</v>
+        <v>3011.7647058823532</v>
       </c>
       <c r="W4" s="15">
         <f t="shared" ref="W4:W7" si="2">(1 + (L4-15)*$D$1)*K4</f>
-        <v>2117.6470588235293</v>
+        <v>1600.0000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -854,13 +854,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="Q5" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R5" s="15">
         <v>320</v>
       </c>
       <c r="S5" s="20">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="T5" s="15">
         <f>E5/((1 + (L5-F5)*0.05)*J5)</f>
@@ -872,11 +872,11 @@
       </c>
       <c r="V5" s="15">
         <f t="shared" si="1"/>
-        <v>1912.5</v>
+        <v>1785</v>
       </c>
       <c r="W5" s="15">
         <f t="shared" si="2"/>
-        <v>1275</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -928,16 +928,16 @@
         <v>7</v>
       </c>
       <c r="P6" s="15">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R6" s="15">
         <v>200</v>
       </c>
       <c r="S6" s="20">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="T6" s="15">
         <f>E6/((1 + (L6-F6)*0.05)*J6)</f>
@@ -945,15 +945,15 @@
       </c>
       <c r="U6" s="15">
         <f t="shared" si="0"/>
-        <v>9300</v>
+        <v>9960</v>
       </c>
       <c r="V6" s="15">
         <f t="shared" si="1"/>
-        <v>7800</v>
+        <v>8159.9999999999991</v>
       </c>
       <c r="W6" s="15">
         <f t="shared" si="2"/>
-        <v>6300</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>8.5</v>
       </c>
       <c r="Q7" s="18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="R7" s="18">
         <v>170</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="U7" s="15">
         <f t="shared" si="0"/>
-        <v>3800.6756756756754</v>
+        <v>3952.7027027027025</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" si="1"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W7" s="15">
         <f t="shared" si="2"/>
-        <v>2280.4054054054054</v>
+        <v>2128.3783783783783</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">

--- a/UnitCharacteristics.xlsx
+++ b/UnitCharacteristics.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
@@ -659,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" s="15">
         <v>1000</v>
@@ -671,18 +671,18 @@
         <v>6</v>
       </c>
       <c r="H3" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="15">
         <v>0.24</v>
       </c>
       <c r="J3" s="15">
         <f>H3/I3</f>
-        <v>33.333333333333336</v>
+        <v>37.5</v>
       </c>
       <c r="K3" s="15">
         <f>H3/I3*60</f>
-        <v>2000.0000000000002</v>
+        <v>2250</v>
       </c>
       <c r="L3" s="15">
         <v>1</v>
@@ -706,23 +706,23 @@
         <v>180</v>
       </c>
       <c r="S3" s="16">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="T3" s="15">
         <f>E3/((1 + (L3-F3)*0.05)*J3)</f>
-        <v>29.999999999999996</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="U3" s="15">
         <f>(1 + (L3-5)*$D$1)*K3</f>
-        <v>1520.0000000000002</v>
+        <v>1710</v>
       </c>
       <c r="V3" s="15">
         <f>(1 + (L3-10)*$D$1)*K3</f>
-        <v>920</v>
+        <v>1035</v>
       </c>
       <c r="W3" s="15">
         <f>(1 + (L3-15)*$D$1)*K3</f>
-        <v>320.00000000000011</v>
+        <v>360.00000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="17">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="E4" s="18">
         <v>1900</v>
@@ -783,7 +783,7 @@
         <v>250</v>
       </c>
       <c r="S4" s="20">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="T4" s="15">
         <f>E4/((1 + (L4-F4)*0.05)*J4)</f>
@@ -813,10 +813,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="17">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E5" s="18">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="20">
         <v>3</v>
@@ -825,24 +825,24 @@
         <v>9</v>
       </c>
       <c r="H5" s="15">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I5" s="18">
         <v>2</v>
       </c>
       <c r="J5" s="15">
         <f>H5/I5</f>
-        <v>42.5</v>
+        <v>45</v>
       </c>
       <c r="K5" s="15">
         <f>H5/I5*60</f>
-        <v>2550</v>
+        <v>2700</v>
       </c>
       <c r="L5" s="15">
         <v>5</v>
       </c>
       <c r="M5" s="15">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N5" s="15">
         <v>-16</v>
@@ -864,19 +864,19 @@
       </c>
       <c r="T5" s="15">
         <f>E5/((1 + (L5-F5)*0.05)*J5)</f>
-        <v>29.946524064171118</v>
+        <v>30.303030303030297</v>
       </c>
       <c r="U5" s="15">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>2700</v>
       </c>
       <c r="V5" s="15">
         <f t="shared" si="1"/>
-        <v>1785</v>
+        <v>1889.9999999999998</v>
       </c>
       <c r="W5" s="15">
         <f t="shared" si="2"/>
-        <v>1020</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="17">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="18">
         <v>3000</v>
@@ -899,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="15">
         <v>750</v>
@@ -967,7 +967,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="17">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E7" s="18">
         <v>1100</v>
@@ -976,27 +976,27 @@
         <v>1</v>
       </c>
       <c r="G7" s="19">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H7" s="18">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="I7" s="18">
-        <v>14.8</v>
+        <v>5.9</v>
       </c>
       <c r="J7" s="15">
         <f>H7/I7</f>
-        <v>50.67567567567567</v>
+        <v>67.796610169491515</v>
       </c>
       <c r="K7" s="15">
         <f>H7/I7*60</f>
-        <v>3040.5405405405404</v>
+        <v>4067.796610169491</v>
       </c>
       <c r="L7" s="18">
         <v>10</v>
       </c>
       <c r="M7" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" s="19">
         <v>-8</v>
@@ -1018,19 +1018,19 @@
       </c>
       <c r="T7" s="15">
         <f>E7/((1 + (L7-F7)*0.05)*J7)</f>
-        <v>14.970114942528737</v>
+        <v>11.189655172413795</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" si="0"/>
-        <v>3952.7027027027025</v>
+        <v>5288.1355932203387</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" si="1"/>
-        <v>3040.5405405405404</v>
+        <v>4067.796610169491</v>
       </c>
       <c r="W7" s="15">
         <f t="shared" si="2"/>
-        <v>2128.3783783783783</v>
+        <v>2847.4576271186434</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
